--- a/data/1_SLR_parsing_table.xlsx
+++ b/data/1_SLR_parsing_table.xlsx
@@ -1060,9 +1060,9 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>S' -&gt; Program · 
+          <t>Program -&gt; Program · Function 
 Program -&gt; Program · Declaration 
-Program -&gt; Program · Function 
+S' -&gt; Program · 
 Function -&gt; · Type identifier ( Arguments ) Block 
 Function -&gt; · Type identifier ( ) Block 
 Declaration -&gt; · Type Declaration_entity ; 
@@ -1549,10 +1549,10 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Function -&gt; Type · identifier ( ) Block 
-Declaration -&gt; Type · Declaration_entity ; 
+          <t>Declaration -&gt; Type · Declaration_entity ; 
 Function -&gt; Type · identifier ( Arguments ) Block 
 Type -&gt; Type · * 
+Function -&gt; Type · identifier ( ) Block 
 Declaration_entity -&gt; · Declaration_entity , Identifier_array 
 Declaration_entity -&gt; · Declaration_entity , Identifier_array = Assignment_expression 
 Declaration_entity -&gt; · Identifier_array 
@@ -2266,9 +2266,9 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Declaration -&gt; Type Declaration_entity · ; 
+          <t>Declaration_entity -&gt; Declaration_entity · , Identifier_array = Assignment_expression 
 Declaration_entity -&gt; Declaration_entity · , Identifier_array 
-Declaration_entity -&gt; Declaration_entity · , Identifier_array = Assignment_expression</t>
+Declaration -&gt; Type Declaration_entity · ;</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2578,9 +2578,9 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Function -&gt; Type identifier · ( Arguments ) Block 
-Function -&gt; Type identifier · ( ) Block 
-Identifier_array -&gt; identifier ·</t>
+          <t>Function -&gt; Type identifier · ( ) Block 
+Identifier_array -&gt; identifier · 
+Function -&gt; Type identifier · ( Arguments ) Block</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3711,9 +3711,9 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Arithmetic_expression -&gt; Arithmetic_expression · + Term_expression 
-Arithmetic_expression -&gt; Arithmetic_expression · - Term_expression 
-Relation_expression -&gt; Arithmetic_expression ·</t>
+          <t>Arithmetic_expression -&gt; Arithmetic_expression · - Term_expression 
+Relation_expression -&gt; Arithmetic_expression · 
+Arithmetic_expression -&gt; Arithmetic_expression · + Term_expression</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -4123,8 +4123,8 @@
       <c r="A29" t="inlineStr">
         <is>
           <t>Equality_expression -&gt; Equality_expression · == Relation_expression 
-Equality_expression -&gt; Equality_expression · != Relation_expression 
-Join_expression -&gt; Equality_expression ·</t>
+Join_expression -&gt; Equality_expression · 
+Equality_expression -&gt; Equality_expression · != Relation_expression</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4272,11 +4272,11 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Assignment_expression -&gt; Evaluation_expression · = Assignment_expression 
-Assignment_expression -&gt; Evaluation_expression · %= Assignment_expression 
+          <t>Assignment_expression -&gt; Evaluation_expression · %= Assignment_expression 
 Assignment_expression -&gt; Evaluation_expression · -= Assignment_expression 
+Assignment_expression -&gt; Evaluation_expression · *= Assignment_expression 
 Assignment_expression -&gt; Evaluation_expression · += Assignment_expression 
-Assignment_expression -&gt; Evaluation_expression · *= Assignment_expression 
+Assignment_expression -&gt; Evaluation_expression · = Assignment_expression 
 Assignment_expression -&gt; Evaluation_expression · 
 Assignment_expression -&gt; Evaluation_expression · /= Assignment_expression</t>
         </is>
@@ -4778,8 +4778,8 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Bool_expression -&gt; Join_expression · 
-Join_expression -&gt; Join_expression · &amp;&amp; Equality_expression</t>
+          <t>Join_expression -&gt; Join_expression · &amp;&amp; Equality_expression 
+Bool_expression -&gt; Join_expression ·</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -5108,11 +5108,11 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Relation_expression -&gt; Relation_expression · &lt; Arithmetic_expression 
-Relation_expression -&gt; Relation_expression · &gt; Arithmetic_expression 
+          <t>Relation_expression -&gt; Relation_expression · &gt; Arithmetic_expression 
 Relation_expression -&gt; Relation_expression · &gt;= Arithmetic_expression 
+Equality_expression -&gt; Relation_expression · 
 Relation_expression -&gt; Relation_expression · &lt;= Arithmetic_expression 
-Equality_expression -&gt; Relation_expression ·</t>
+Relation_expression -&gt; Relation_expression · &lt; Arithmetic_expression</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5276,10 +5276,10 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Term_expression -&gt; Term_expression · * Unary_expression 
-Arithmetic_expression -&gt; Term_expression · 
+          <t>Arithmetic_expression -&gt; Term_expression · 
+Term_expression -&gt; Term_expression · % Unary_expression 
 Term_expression -&gt; Term_expression · / Unary_expression 
-Term_expression -&gt; Term_expression · % Unary_expression</t>
+Term_expression -&gt; Term_expression · * Unary_expression</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -7343,9 +7343,9 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Function_expression -&gt; identifier · ( Separation_expression ) 
+          <t>Function_expression -&gt; identifier · ( ) 
 Location_expression -&gt; identifier · 
-Function_expression -&gt; identifier · ( )</t>
+Function_expression -&gt; identifier · ( Separation_expression )</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -8285,8 +8285,8 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Arguments -&gt; Arguments · , Argument 
-Function -&gt; Type identifier ( Arguments · ) Block</t>
+          <t>Function -&gt; Type identifier ( Arguments · ) Block 
+Arguments -&gt; Arguments · , Argument</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -14251,8 +14251,8 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Function_expression -&gt; identifier ( · Separation_expression ) 
-Function_expression -&gt; identifier ( · ) 
+          <t>Function_expression -&gt; identifier ( · ) 
+Function_expression -&gt; identifier ( · Separation_expression ) 
 Separation_expression -&gt; · Assignment_expression , Separation_expression 
 Separation_expression -&gt; · Assignment_expression 
 Assignment_expression -&gt; · Evaluation_expression = Assignment_expression 
@@ -15385,10 +15385,10 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Term_expression -&gt; Term_expression · * Unary_expression 
-Term_expression -&gt; Term_expression · % Unary_expression 
+          <t>Term_expression -&gt; Term_expression · % Unary_expression 
 Arithmetic_expression -&gt; Arithmetic_expression + Term_expression · 
-Term_expression -&gt; Term_expression · / Unary_expression</t>
+Term_expression -&gt; Term_expression · / Unary_expression 
+Term_expression -&gt; Term_expression · * Unary_expression</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -15572,10 +15572,10 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Term_expression -&gt; Term_expression · * Unary_expression 
+          <t>Term_expression -&gt; Term_expression · / Unary_expression 
+Term_expression -&gt; Term_expression · % Unary_expression 
 Arithmetic_expression -&gt; Arithmetic_expression - Term_expression · 
-Term_expression -&gt; Term_expression · / Unary_expression 
-Term_expression -&gt; Term_expression · % Unary_expression</t>
+Term_expression -&gt; Term_expression · * Unary_expression</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -15759,8 +15759,8 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Bool_expression -&gt; Bool_expression || Join_expression · 
-Join_expression -&gt; Join_expression · &amp;&amp; Equality_expression</t>
+          <t>Join_expression -&gt; Join_expression · &amp;&amp; Equality_expression 
+Bool_expression -&gt; Bool_expression || Join_expression ·</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -15900,11 +15900,11 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Relation_expression -&gt; Relation_expression · &lt; Arithmetic_expression 
+          <t>Equality_expression -&gt; Equality_expression != Relation_expression · 
+Relation_expression -&gt; Relation_expression · &gt;= Arithmetic_expression 
 Relation_expression -&gt; Relation_expression · &gt; Arithmetic_expression 
-Relation_expression -&gt; Relation_expression · &gt;= Arithmetic_expression 
 Relation_expression -&gt; Relation_expression · &lt;= Arithmetic_expression 
-Equality_expression -&gt; Equality_expression != Relation_expression ·</t>
+Relation_expression -&gt; Relation_expression · &lt; Arithmetic_expression</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -16068,11 +16068,11 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Relation_expression -&gt; Relation_expression · &lt; Arithmetic_expression 
-Relation_expression -&gt; Relation_expression · &gt; Arithmetic_expression 
+          <t>Relation_expression -&gt; Relation_expression · &gt; Arithmetic_expression 
 Relation_expression -&gt; Relation_expression · &gt;= Arithmetic_expression 
+Equality_expression -&gt; Equality_expression == Relation_expression · 
 Relation_expression -&gt; Relation_expression · &lt;= Arithmetic_expression 
-Equality_expression -&gt; Equality_expression == Relation_expression ·</t>
+Relation_expression -&gt; Relation_expression · &lt; Arithmetic_expression</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -16884,9 +16884,9 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Equality_expression -&gt; Equality_expression · == Relation_expression 
-Equality_expression -&gt; Equality_expression · != Relation_expression 
-Join_expression -&gt; Join_expression &amp;&amp; Equality_expression ·</t>
+          <t>Join_expression -&gt; Join_expression &amp;&amp; Equality_expression · 
+Equality_expression -&gt; Equality_expression · == Relation_expression 
+Equality_expression -&gt; Equality_expression · != Relation_expression</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -17130,8 +17130,8 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Relation_expression -&gt; Relation_expression &lt; Arithmetic_expression · 
-Arithmetic_expression -&gt; Arithmetic_expression · - Term_expression 
+          <t>Arithmetic_expression -&gt; Arithmetic_expression · - Term_expression 
+Relation_expression -&gt; Relation_expression &lt; Arithmetic_expression · 
 Arithmetic_expression -&gt; Arithmetic_expression · + Term_expression</t>
         </is>
       </c>
@@ -17478,9 +17478,9 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Relation_expression -&gt; Relation_expression &gt; Arithmetic_expression · 
-Arithmetic_expression -&gt; Arithmetic_expression · - Term_expression 
-Arithmetic_expression -&gt; Arithmetic_expression · + Term_expression</t>
+          <t>Arithmetic_expression -&gt; Arithmetic_expression · - Term_expression 
+Arithmetic_expression -&gt; Arithmetic_expression · + Term_expression 
+Relation_expression -&gt; Relation_expression &gt; Arithmetic_expression ·</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -17652,8 +17652,8 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Relation_expression -&gt; Relation_expression &gt;= Arithmetic_expression · 
-Arithmetic_expression -&gt; Arithmetic_expression · - Term_expression 
+          <t>Arithmetic_expression -&gt; Arithmetic_expression · - Term_expression 
+Relation_expression -&gt; Relation_expression &gt;= Arithmetic_expression · 
 Arithmetic_expression -&gt; Arithmetic_expression · + Term_expression</t>
         </is>
       </c>
@@ -19306,9 +19306,9 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Block -&gt; { Declarations_or_statements · } 
-Declarations_or_statements -&gt; Declarations_or_statements · Declaration 
+          <t>Declarations_or_statements -&gt; Declarations_or_statements · Declaration 
 Declarations_or_statements -&gt; Declarations_or_statements · Statement 
+Block -&gt; { Declarations_or_statements · } 
 Declaration -&gt; · Type Declaration_entity ; 
 Statement -&gt; · Open_statement 
 Statement -&gt; · Closed_statement 
@@ -21319,8 +21319,8 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Declaration -&gt; Type · Declaration_entity ; 
-Type -&gt; Type · * 
+          <t>Type -&gt; Type · * 
+Declaration -&gt; Type · Declaration_entity ; 
 Declaration_entity -&gt; · Declaration_entity , Identifier_array 
 Declaration_entity -&gt; · Declaration_entity , Identifier_array = Assignment_expression 
 Declaration_entity -&gt; · Identifier_array 
@@ -22168,10 +22168,10 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Open_statement -&gt; for · ( Expression ; Expression ; Expression ) Open_statement 
+          <t>Open_statement -&gt; for · ( Declaration Expression ; Expression ) Open_statement 
+Open_statement -&gt; for · ( Expression ; Expression ; Expression ) Open_statement 
 Closed_statement -&gt; for · ( Declaration Expression ; Expression ) Closed_statement 
-Closed_statement -&gt; for · ( Expression ; Expression ; Expression ) Closed_statement 
-Open_statement -&gt; for · ( Declaration Expression ; Expression ) Open_statement</t>
+Closed_statement -&gt; for · ( Expression ; Expression ; Expression ) Closed_statement</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -22363,9 +22363,9 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Open_statement -&gt; if · ( Bool_expression ) Statement 
-Open_statement -&gt; if · ( Bool_expression ) Closed_statement else Open_statement 
-Closed_statement -&gt; if · ( Bool_expression ) Closed_statement else Closed_statement</t>
+          <t>Open_statement -&gt; if · ( Bool_expression ) Closed_statement else Open_statement 
+Closed_statement -&gt; if · ( Bool_expression ) Closed_statement else Closed_statement 
+Open_statement -&gt; if · ( Bool_expression ) Statement</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -22461,8 +22461,8 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Closed_statement -&gt; return · Expression ; 
-Closed_statement -&gt; return · ; 
+          <t>Closed_statement -&gt; return · ; 
+Closed_statement -&gt; return · Expression ; 
 Expression -&gt; · Separation_expression 
 Separation_expression -&gt; · Assignment_expression , Separation_expression 
 Separation_expression -&gt; · Assignment_expression 
@@ -23776,16 +23776,22 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Closed_statement -&gt; for ( · Expression ; Expression ; Expression ) Closed_statement 
-Closed_statement -&gt; for ( · Declaration Expression ; Expression ) Closed_statement 
+          <t>Closed_statement -&gt; for ( · Declaration Expression ; Expression ) Closed_statement 
 Open_statement -&gt; for ( · Declaration Expression ; Expression ) Open_statement 
+Closed_statement -&gt; for ( · Expression ; Expression ; Expression ) Closed_statement 
 Open_statement -&gt; for ( · Expression ; Expression ; Expression ) Open_statement 
+Declaration -&gt; · Type Declaration_entity ; 
 Expression -&gt; · Separation_expression 
-Declaration -&gt; · Type Declaration_entity ; 
+Type -&gt; · Type * 
+Type -&gt; · Basic_type 
 Separation_expression -&gt; · Assignment_expression , Separation_expression 
 Separation_expression -&gt; · Assignment_expression 
-Type -&gt; · Type * 
-Type -&gt; · Basic_type 
+Basic_type -&gt; · float 
+Basic_type -&gt; · int 
+Basic_type -&gt; · bool 
+Basic_type -&gt; · void 
+Basic_type -&gt; · string 
+Basic_type -&gt; · char 
 Assignment_expression -&gt; · Evaluation_expression = Assignment_expression 
 Assignment_expression -&gt; · Evaluation_expression += Assignment_expression 
 Assignment_expression -&gt; · Evaluation_expression -= Assignment_expression 
@@ -23793,12 +23799,6 @@
 Assignment_expression -&gt; · Evaluation_expression /= Assignment_expression 
 Assignment_expression -&gt; · Evaluation_expression %= Assignment_expression 
 Assignment_expression -&gt; · Evaluation_expression 
-Basic_type -&gt; · float 
-Basic_type -&gt; · int 
-Basic_type -&gt; · bool 
-Basic_type -&gt; · void 
-Basic_type -&gt; · string 
-Basic_type -&gt; · char 
 Evaluation_expression -&gt; · Bool_expression 
 Bool_expression -&gt; · Bool_expression || Join_expression 
 Bool_expression -&gt; · Join_expression 
@@ -24169,9 +24169,9 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Open_statement -&gt; if ( · Bool_expression ) Statement 
-Closed_statement -&gt; if ( · Bool_expression ) Closed_statement else Closed_statement 
+          <t>Closed_statement -&gt; if ( · Bool_expression ) Closed_statement else Closed_statement 
 Open_statement -&gt; if ( · Bool_expression ) Closed_statement else Open_statement 
+Open_statement -&gt; if ( · Bool_expression ) Statement 
 Bool_expression -&gt; · Bool_expression || Join_expression 
 Bool_expression -&gt; · Join_expression 
 Join_expression -&gt; · Join_expression &amp;&amp; Equality_expression 
@@ -25024,8 +25024,8 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Closed_statement -&gt; for ( Declaration · Expression ; Expression ) Closed_statement 
-Open_statement -&gt; for ( Declaration · Expression ; Expression ) Open_statement 
+          <t>Open_statement -&gt; for ( Declaration · Expression ; Expression ) Open_statement 
+Closed_statement -&gt; for ( Declaration · Expression ; Expression ) Closed_statement 
 Expression -&gt; · Separation_expression 
 Separation_expression -&gt; · Assignment_expression , Separation_expression 
 Separation_expression -&gt; · Assignment_expression 
@@ -25274,8 +25274,8 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Open_statement -&gt; for ( Expression · ; Expression ; Expression ) Open_statement 
-Closed_statement -&gt; for ( Expression · ; Expression ; Expression ) Closed_statement</t>
+          <t>Closed_statement -&gt; for ( Expression · ; Expression ; Expression ) Closed_statement 
+Open_statement -&gt; for ( Expression · ; Expression ; Expression ) Open_statement</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -25587,10 +25587,10 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Bool_expression -&gt; Bool_expression · || Join_expression 
+          <t>Open_statement -&gt; if ( Bool_expression · ) Statement 
 Open_statement -&gt; if ( Bool_expression · ) Closed_statement else Open_statement 
 Closed_statement -&gt; if ( Bool_expression · ) Closed_statement else Closed_statement 
-Open_statement -&gt; if ( Bool_expression · ) Statement</t>
+Bool_expression -&gt; Bool_expression · || Join_expression</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -25906,9 +25906,9 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Bool_expression -&gt; Bool_expression · || Join_expression 
-Closed_statement -&gt; while ( Bool_expression · ) Closed_statement 
-Open_statement -&gt; while ( Bool_expression · ) Open_statement</t>
+          <t>Closed_statement -&gt; while ( Bool_expression · ) Closed_statement 
+Open_statement -&gt; while ( Bool_expression · ) Open_statement 
+Bool_expression -&gt; Bool_expression · || Join_expression</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -26327,8 +26327,8 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Closed_statement -&gt; for ( Expression ; · Expression ; Expression ) Closed_statement 
-Open_statement -&gt; for ( Expression ; · Expression ; Expression ) Open_statement 
+          <t>Open_statement -&gt; for ( Expression ; · Expression ; Expression ) Open_statement 
+Closed_statement -&gt; for ( Expression ; · Expression ; Expression ) Closed_statement 
 Expression -&gt; · Separation_expression 
 Separation_expression -&gt; · Assignment_expression , Separation_expression 
 Separation_expression -&gt; · Assignment_expression 
@@ -26578,335 +26578,10 @@
       <c r="A160" t="inlineStr">
         <is>
           <t>Open_statement -&gt; if ( Bool_expression ) · Closed_statement else Open_statement 
+Open_statement -&gt; if ( Bool_expression ) · Statement 
 Closed_statement -&gt; if ( Bool_expression ) · Closed_statement else Closed_statement 
-Open_statement -&gt; if ( Bool_expression ) · Statement 
-Closed_statement -&gt; · if ( Bool_expression ) Closed_statement else Closed_statement 
-Closed_statement -&gt; · while ( Bool_expression ) Closed_statement 
-Closed_statement -&gt; · for ( Expression ; Expression ; Expression ) Closed_statement 
-Closed_statement -&gt; · for ( Declaration Expression ; Expression ) Closed_statement 
-Closed_statement -&gt; · Block 
-Closed_statement -&gt; · Expression ; 
-Closed_statement -&gt; · ; 
-Closed_statement -&gt; · do Statement while ( Bool_expression ) ; 
-Closed_statement -&gt; · break ; 
-Closed_statement -&gt; · continue ; 
-Closed_statement -&gt; · goto identifier ; 
-Closed_statement -&gt; · return Expression ; 
-Closed_statement -&gt; · return ; 
 Statement -&gt; · Open_statement 
 Statement -&gt; · Closed_statement 
-Block -&gt; · { Declarations_or_statements } 
-Expression -&gt; · Separation_expression 
-Open_statement -&gt; · if ( Bool_expression ) Statement 
-Open_statement -&gt; · if ( Bool_expression ) Closed_statement else Open_statement 
-Open_statement -&gt; · while ( Bool_expression ) Open_statement 
-Open_statement -&gt; · for ( Expression ; Expression ; Expression ) Open_statement 
-Open_statement -&gt; · for ( Declaration Expression ; Expression ) Open_statement 
-Separation_expression -&gt; · Assignment_expression , Separation_expression 
-Separation_expression -&gt; · Assignment_expression 
-Assignment_expression -&gt; · Evaluation_expression = Assignment_expression 
-Assignment_expression -&gt; · Evaluation_expression += Assignment_expression 
-Assignment_expression -&gt; · Evaluation_expression -= Assignment_expression 
-Assignment_expression -&gt; · Evaluation_expression *= Assignment_expression 
-Assignment_expression -&gt; · Evaluation_expression /= Assignment_expression 
-Assignment_expression -&gt; · Evaluation_expression %= Assignment_expression 
-Assignment_expression -&gt; · Evaluation_expression 
-Evaluation_expression -&gt; · Bool_expression 
-Bool_expression -&gt; · Bool_expression || Join_expression 
-Bool_expression -&gt; · Join_expression 
-Join_expression -&gt; · Join_expression &amp;&amp; Equality_expression 
-Join_expression -&gt; · Equality_expression 
-Equality_expression -&gt; · Equality_expression == Relation_expression 
-Equality_expression -&gt; · Equality_expression != Relation_expression 
-Equality_expression -&gt; · Relation_expression 
-Relation_expression -&gt; · Relation_expression &lt; Arithmetic_expression 
-Relation_expression -&gt; · Relation_expression &lt;= Arithmetic_expression 
-Relation_expression -&gt; · Relation_expression &gt;= Arithmetic_expression 
-Relation_expression -&gt; · Relation_expression &gt; Arithmetic_expression 
-Relation_expression -&gt; · Arithmetic_expression 
-Arithmetic_expression -&gt; · Arithmetic_expression + Term_expression 
-Arithmetic_expression -&gt; · Arithmetic_expression - Term_expression 
-Arithmetic_expression -&gt; · Term_expression 
-Term_expression -&gt; · Term_expression * Unary_expression 
-Term_expression -&gt; · Term_expression / Unary_expression 
-Term_expression -&gt; · Term_expression % Unary_expression 
-Term_expression -&gt; · Unary_expression 
-Unary_expression -&gt; · ! Unary_expression 
-Unary_expression -&gt; · - Unary_expression 
-Unary_expression -&gt; · + Unary_expression 
-Unary_expression -&gt; · * Unary_expression 
-Unary_expression -&gt; · &amp; Unary_expression 
-Unary_expression -&gt; · Factor_expression 
-Factor_expression -&gt; · ( Expression ) 
-Factor_expression -&gt; · Location_expression 
-Factor_expression -&gt; · Function_expression 
-Factor_expression -&gt; · int_value 
-Factor_expression -&gt; · float_value 
-Factor_expression -&gt; · string_value 
-Factor_expression -&gt; · char_value 
-Factor_expression -&gt; · true 
-Factor_expression -&gt; · false 
-Location_expression -&gt; · Location_expression [ Expression ] 
-Location_expression -&gt; · identifier 
-Function_expression -&gt; · identifier ( Separation_expression ) 
-Function_expression -&gt; · identifier ( )</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>I157</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>s35</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr"/>
-      <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>s36</t>
-        </is>
-      </c>
-      <c r="H160" t="inlineStr"/>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>s37</t>
-        </is>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>s38</t>
-        </is>
-      </c>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="inlineStr">
-        <is>
-          <t>s39</t>
-        </is>
-      </c>
-      <c r="N160" t="inlineStr"/>
-      <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr">
-        <is>
-          <t>s40</t>
-        </is>
-      </c>
-      <c r="Q160" t="inlineStr"/>
-      <c r="R160" t="inlineStr"/>
-      <c r="S160" t="inlineStr"/>
-      <c r="T160" t="inlineStr">
-        <is>
-          <t>s127</t>
-        </is>
-      </c>
-      <c r="U160" t="inlineStr"/>
-      <c r="V160" t="inlineStr"/>
-      <c r="W160" t="inlineStr"/>
-      <c r="X160" t="inlineStr"/>
-      <c r="Y160" t="inlineStr"/>
-      <c r="Z160" t="inlineStr"/>
-      <c r="AA160" t="inlineStr"/>
-      <c r="AB160" t="inlineStr"/>
-      <c r="AC160" t="inlineStr"/>
-      <c r="AD160" t="inlineStr">
-        <is>
-          <t>s128</t>
-        </is>
-      </c>
-      <c r="AE160" t="inlineStr"/>
-      <c r="AF160" t="inlineStr">
-        <is>
-          <t>s41</t>
-        </is>
-      </c>
-      <c r="AG160" t="inlineStr">
-        <is>
-          <t>s129</t>
-        </is>
-      </c>
-      <c r="AH160" t="inlineStr">
-        <is>
-          <t>s130</t>
-        </is>
-      </c>
-      <c r="AI160" t="inlineStr"/>
-      <c r="AJ160" t="inlineStr">
-        <is>
-          <t>s42</t>
-        </is>
-      </c>
-      <c r="AK160" t="inlineStr"/>
-      <c r="AL160" t="inlineStr">
-        <is>
-          <t>s43</t>
-        </is>
-      </c>
-      <c r="AM160" t="inlineStr">
-        <is>
-          <t>s131</t>
-        </is>
-      </c>
-      <c r="AN160" t="inlineStr">
-        <is>
-          <t>s132</t>
-        </is>
-      </c>
-      <c r="AO160" t="inlineStr">
-        <is>
-          <t>s44</t>
-        </is>
-      </c>
-      <c r="AP160" t="inlineStr">
-        <is>
-          <t>s133</t>
-        </is>
-      </c>
-      <c r="AQ160" t="inlineStr"/>
-      <c r="AR160" t="inlineStr">
-        <is>
-          <t>s45</t>
-        </is>
-      </c>
-      <c r="AS160" t="inlineStr">
-        <is>
-          <t>s134</t>
-        </is>
-      </c>
-      <c r="AT160" t="inlineStr"/>
-      <c r="AU160" t="inlineStr">
-        <is>
-          <t>s46</t>
-        </is>
-      </c>
-      <c r="AV160" t="inlineStr">
-        <is>
-          <t>s47</t>
-        </is>
-      </c>
-      <c r="AW160" t="inlineStr"/>
-      <c r="AX160" t="inlineStr">
-        <is>
-          <t>s135</t>
-        </is>
-      </c>
-      <c r="AY160" t="inlineStr">
-        <is>
-          <t>s88</t>
-        </is>
-      </c>
-      <c r="AZ160" t="inlineStr"/>
-      <c r="BA160" t="inlineStr"/>
-      <c r="BB160" t="inlineStr"/>
-      <c r="BC160" t="inlineStr"/>
-      <c r="BD160" t="inlineStr"/>
-      <c r="BE160" t="inlineStr"/>
-      <c r="BF160" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="BG160" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="BH160" t="inlineStr"/>
-      <c r="BI160" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="BJ160" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="BK160" t="inlineStr">
-        <is>
-          <t>162</t>
-        </is>
-      </c>
-      <c r="BL160" t="inlineStr"/>
-      <c r="BM160" t="inlineStr"/>
-      <c r="BN160" t="inlineStr"/>
-      <c r="BO160" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="BP160" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="BQ160" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="BR160" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="BS160" t="inlineStr"/>
-      <c r="BT160" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="BU160" t="inlineStr"/>
-      <c r="BV160" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="BW160" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="BX160" t="inlineStr">
-        <is>
-          <t>124</t>
-        </is>
-      </c>
-      <c r="BY160" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="BZ160" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="CA160" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="CB160" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="CC160" t="inlineStr"/>
-      <c r="CD160" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>Open_statement -&gt; while ( Bool_expression ) · Open_statement 
-Closed_statement -&gt; while ( Bool_expression ) · Closed_statement 
 Closed_statement -&gt; · if ( Bool_expression ) Closed_statement else Closed_statement 
 Closed_statement -&gt; · while ( Bool_expression ) Closed_statement 
 Closed_statement -&gt; · for ( Expression ; Expression ; Expression ) Closed_statement 
@@ -26977,6 +26652,331 @@
 Function_expression -&gt; · identifier ( )</t>
         </is>
       </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>I157</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>s35</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>s36</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>s37</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>s38</t>
+        </is>
+      </c>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>s39</t>
+        </is>
+      </c>
+      <c r="N160" t="inlineStr"/>
+      <c r="O160" t="inlineStr"/>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>s40</t>
+        </is>
+      </c>
+      <c r="Q160" t="inlineStr"/>
+      <c r="R160" t="inlineStr"/>
+      <c r="S160" t="inlineStr"/>
+      <c r="T160" t="inlineStr">
+        <is>
+          <t>s127</t>
+        </is>
+      </c>
+      <c r="U160" t="inlineStr"/>
+      <c r="V160" t="inlineStr"/>
+      <c r="W160" t="inlineStr"/>
+      <c r="X160" t="inlineStr"/>
+      <c r="Y160" t="inlineStr"/>
+      <c r="Z160" t="inlineStr"/>
+      <c r="AA160" t="inlineStr"/>
+      <c r="AB160" t="inlineStr"/>
+      <c r="AC160" t="inlineStr"/>
+      <c r="AD160" t="inlineStr">
+        <is>
+          <t>s128</t>
+        </is>
+      </c>
+      <c r="AE160" t="inlineStr"/>
+      <c r="AF160" t="inlineStr">
+        <is>
+          <t>s41</t>
+        </is>
+      </c>
+      <c r="AG160" t="inlineStr">
+        <is>
+          <t>s129</t>
+        </is>
+      </c>
+      <c r="AH160" t="inlineStr">
+        <is>
+          <t>s130</t>
+        </is>
+      </c>
+      <c r="AI160" t="inlineStr"/>
+      <c r="AJ160" t="inlineStr">
+        <is>
+          <t>s42</t>
+        </is>
+      </c>
+      <c r="AK160" t="inlineStr"/>
+      <c r="AL160" t="inlineStr">
+        <is>
+          <t>s43</t>
+        </is>
+      </c>
+      <c r="AM160" t="inlineStr">
+        <is>
+          <t>s131</t>
+        </is>
+      </c>
+      <c r="AN160" t="inlineStr">
+        <is>
+          <t>s132</t>
+        </is>
+      </c>
+      <c r="AO160" t="inlineStr">
+        <is>
+          <t>s44</t>
+        </is>
+      </c>
+      <c r="AP160" t="inlineStr">
+        <is>
+          <t>s133</t>
+        </is>
+      </c>
+      <c r="AQ160" t="inlineStr"/>
+      <c r="AR160" t="inlineStr">
+        <is>
+          <t>s45</t>
+        </is>
+      </c>
+      <c r="AS160" t="inlineStr">
+        <is>
+          <t>s134</t>
+        </is>
+      </c>
+      <c r="AT160" t="inlineStr"/>
+      <c r="AU160" t="inlineStr">
+        <is>
+          <t>s46</t>
+        </is>
+      </c>
+      <c r="AV160" t="inlineStr">
+        <is>
+          <t>s47</t>
+        </is>
+      </c>
+      <c r="AW160" t="inlineStr"/>
+      <c r="AX160" t="inlineStr">
+        <is>
+          <t>s135</t>
+        </is>
+      </c>
+      <c r="AY160" t="inlineStr">
+        <is>
+          <t>s88</t>
+        </is>
+      </c>
+      <c r="AZ160" t="inlineStr"/>
+      <c r="BA160" t="inlineStr"/>
+      <c r="BB160" t="inlineStr"/>
+      <c r="BC160" t="inlineStr"/>
+      <c r="BD160" t="inlineStr"/>
+      <c r="BE160" t="inlineStr"/>
+      <c r="BF160" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="BG160" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="BH160" t="inlineStr"/>
+      <c r="BI160" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="BJ160" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="BK160" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="BL160" t="inlineStr"/>
+      <c r="BM160" t="inlineStr"/>
+      <c r="BN160" t="inlineStr"/>
+      <c r="BO160" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="BP160" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="BQ160" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="BR160" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="BS160" t="inlineStr"/>
+      <c r="BT160" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="BU160" t="inlineStr"/>
+      <c r="BV160" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="BW160" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="BX160" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="BY160" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="BZ160" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="CA160" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="CB160" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="CC160" t="inlineStr"/>
+      <c r="CD160" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Closed_statement -&gt; while ( Bool_expression ) · Closed_statement 
+Open_statement -&gt; while ( Bool_expression ) · Open_statement 
+Closed_statement -&gt; · if ( Bool_expression ) Closed_statement else Closed_statement 
+Closed_statement -&gt; · while ( Bool_expression ) Closed_statement 
+Closed_statement -&gt; · for ( Expression ; Expression ; Expression ) Closed_statement 
+Closed_statement -&gt; · for ( Declaration Expression ; Expression ) Closed_statement 
+Closed_statement -&gt; · Block 
+Closed_statement -&gt; · Expression ; 
+Closed_statement -&gt; · ; 
+Closed_statement -&gt; · do Statement while ( Bool_expression ) ; 
+Closed_statement -&gt; · break ; 
+Closed_statement -&gt; · continue ; 
+Closed_statement -&gt; · goto identifier ; 
+Closed_statement -&gt; · return Expression ; 
+Closed_statement -&gt; · return ; 
+Open_statement -&gt; · if ( Bool_expression ) Statement 
+Open_statement -&gt; · if ( Bool_expression ) Closed_statement else Open_statement 
+Open_statement -&gt; · while ( Bool_expression ) Open_statement 
+Open_statement -&gt; · for ( Expression ; Expression ; Expression ) Open_statement 
+Open_statement -&gt; · for ( Declaration Expression ; Expression ) Open_statement 
+Block -&gt; · { Declarations_or_statements } 
+Expression -&gt; · Separation_expression 
+Separation_expression -&gt; · Assignment_expression , Separation_expression 
+Separation_expression -&gt; · Assignment_expression 
+Assignment_expression -&gt; · Evaluation_expression = Assignment_expression 
+Assignment_expression -&gt; · Evaluation_expression += Assignment_expression 
+Assignment_expression -&gt; · Evaluation_expression -= Assignment_expression 
+Assignment_expression -&gt; · Evaluation_expression *= Assignment_expression 
+Assignment_expression -&gt; · Evaluation_expression /= Assignment_expression 
+Assignment_expression -&gt; · Evaluation_expression %= Assignment_expression 
+Assignment_expression -&gt; · Evaluation_expression 
+Evaluation_expression -&gt; · Bool_expression 
+Bool_expression -&gt; · Bool_expression || Join_expression 
+Bool_expression -&gt; · Join_expression 
+Join_expression -&gt; · Join_expression &amp;&amp; Equality_expression 
+Join_expression -&gt; · Equality_expression 
+Equality_expression -&gt; · Equality_expression == Relation_expression 
+Equality_expression -&gt; · Equality_expression != Relation_expression 
+Equality_expression -&gt; · Relation_expression 
+Relation_expression -&gt; · Relation_expression &lt; Arithmetic_expression 
+Relation_expression -&gt; · Relation_expression &lt;= Arithmetic_expression 
+Relation_expression -&gt; · Relation_expression &gt;= Arithmetic_expression 
+Relation_expression -&gt; · Relation_expression &gt; Arithmetic_expression 
+Relation_expression -&gt; · Arithmetic_expression 
+Arithmetic_expression -&gt; · Arithmetic_expression + Term_expression 
+Arithmetic_expression -&gt; · Arithmetic_expression - Term_expression 
+Arithmetic_expression -&gt; · Term_expression 
+Term_expression -&gt; · Term_expression * Unary_expression 
+Term_expression -&gt; · Term_expression / Unary_expression 
+Term_expression -&gt; · Term_expression % Unary_expression 
+Term_expression -&gt; · Unary_expression 
+Unary_expression -&gt; · ! Unary_expression 
+Unary_expression -&gt; · - Unary_expression 
+Unary_expression -&gt; · + Unary_expression 
+Unary_expression -&gt; · * Unary_expression 
+Unary_expression -&gt; · &amp; Unary_expression 
+Unary_expression -&gt; · Factor_expression 
+Factor_expression -&gt; · ( Expression ) 
+Factor_expression -&gt; · Location_expression 
+Factor_expression -&gt; · Function_expression 
+Factor_expression -&gt; · int_value 
+Factor_expression -&gt; · float_value 
+Factor_expression -&gt; · string_value 
+Factor_expression -&gt; · char_value 
+Factor_expression -&gt; · true 
+Factor_expression -&gt; · false 
+Location_expression -&gt; · Location_expression [ Expression ] 
+Location_expression -&gt; · identifier 
+Function_expression -&gt; · identifier ( Separation_expression ) 
+Function_expression -&gt; · identifier ( )</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>I158</t>
@@ -27226,8 +27226,8 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Bool_expression -&gt; Bool_expression · || Join_expression 
-Closed_statement -&gt; do Statement while ( Bool_expression · ) ;</t>
+          <t>Closed_statement -&gt; do Statement while ( Bool_expression · ) ; 
+Bool_expression -&gt; Bool_expression · || Join_expression</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -27327,8 +27327,8 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Open_statement -&gt; for ( Declaration Expression ; · Expression ) Open_statement 
-Closed_statement -&gt; for ( Declaration Expression ; · Expression ) Closed_statement 
+          <t>Closed_statement -&gt; for ( Declaration Expression ; · Expression ) Closed_statement 
+Open_statement -&gt; for ( Declaration Expression ; · Expression ) Open_statement 
 Expression -&gt; · Separation_expression 
 Separation_expression -&gt; · Assignment_expression , Separation_expression 
 Separation_expression -&gt; · Assignment_expression 
@@ -27674,9 +27674,9 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Statement -&gt; Closed_statement · 
-Open_statement -&gt; if ( Bool_expression ) Closed_statement · else Open_statement 
-Closed_statement -&gt; if ( Bool_expression ) Closed_statement · else Closed_statement</t>
+          <t>Open_statement -&gt; if ( Bool_expression ) Closed_statement · else Open_statement 
+Closed_statement -&gt; if ( Bool_expression ) Closed_statement · else Closed_statement 
+Statement -&gt; Closed_statement ·</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -30786,8 +30786,8 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Closed_statement -&gt; for ( Expression ; Expression ; Expression ) · Closed_statement 
-Open_statement -&gt; for ( Expression ; Expression ; Expression ) · Open_statement 
+          <t>Open_statement -&gt; for ( Expression ; Expression ; Expression ) · Open_statement 
+Closed_statement -&gt; for ( Expression ; Expression ; Expression ) · Closed_statement 
 Open_statement -&gt; · if ( Bool_expression ) Statement 
 Open_statement -&gt; · if ( Bool_expression ) Closed_statement else Open_statement 
 Open_statement -&gt; · while ( Bool_expression ) Open_statement 

--- a/data/1_SLR_parsing_table.xlsx
+++ b/data/1_SLR_parsing_table.xlsx
@@ -1061,8 +1061,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Program -&gt; Program · Function 
+S' -&gt; Program · 
 Program -&gt; Program · Declaration 
-S' -&gt; Program · 
 Function -&gt; · Type identifier ( Arguments ) Block 
 Function -&gt; · Type identifier ( ) Block 
 Declaration -&gt; · Type Declaration_entity ; 
@@ -1549,10 +1549,10 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Declaration -&gt; Type · Declaration_entity ; 
+          <t>Type -&gt; Type · * 
 Function -&gt; Type · identifier ( Arguments ) Block 
-Type -&gt; Type · * 
 Function -&gt; Type · identifier ( ) Block 
+Declaration -&gt; Type · Declaration_entity ; 
 Declaration_entity -&gt; · Declaration_entity , Identifier_array 
 Declaration_entity -&gt; · Declaration_entity , Identifier_array = Assignment_expression 
 Declaration_entity -&gt; · Identifier_array 
@@ -2266,8 +2266,8 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Declaration_entity -&gt; Declaration_entity · , Identifier_array = Assignment_expression 
-Declaration_entity -&gt; Declaration_entity · , Identifier_array 
+          <t>Declaration_entity -&gt; Declaration_entity · , Identifier_array 
+Declaration_entity -&gt; Declaration_entity · , Identifier_array = Assignment_expression 
 Declaration -&gt; Type Declaration_entity · ;</t>
         </is>
       </c>
@@ -2368,8 +2368,8 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Declaration_entity -&gt; Identifier_array · 
-Declaration_entity -&gt; Identifier_array · = Assignment_expression 
+          <t>Declaration_entity -&gt; Identifier_array · = Assignment_expression 
+Declaration_entity -&gt; Identifier_array · 
 Identifier_array -&gt; Identifier_array · [ int_value ]</t>
         </is>
       </c>
@@ -2578,8 +2578,8 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Function -&gt; Type identifier · ( ) Block 
-Identifier_array -&gt; identifier · 
+          <t>Identifier_array -&gt; identifier · 
+Function -&gt; Type identifier · ( ) Block 
 Function -&gt; Type identifier · ( Arguments ) Block</t>
         </is>
       </c>
@@ -2692,8 +2692,8 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Declaration_entity -&gt; Declaration_entity , · Identifier_array 
-Declaration_entity -&gt; Declaration_entity , · Identifier_array = Assignment_expression 
+          <t>Declaration_entity -&gt; Declaration_entity , · Identifier_array = Assignment_expression 
+Declaration_entity -&gt; Declaration_entity , · Identifier_array 
 Identifier_array -&gt; · Identifier_array [ int_value ] 
 Identifier_array -&gt; · identifier</t>
         </is>
@@ -3345,8 +3345,8 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Function -&gt; Type identifier ( · Arguments ) Block 
-Function -&gt; Type identifier ( · ) Block 
+          <t>Function -&gt; Type identifier ( · ) Block 
+Function -&gt; Type identifier ( · Arguments ) Block 
 Arguments -&gt; · Arguments , Argument 
 Arguments -&gt; · Argument 
 Argument -&gt; · Type identifier 
@@ -3493,9 +3493,9 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Declaration_entity -&gt; Declaration_entity , Identifier_array · 
-Identifier_array -&gt; Identifier_array · [ int_value ] 
-Declaration_entity -&gt; Declaration_entity , Identifier_array · = Assignment_expression</t>
+          <t>Declaration_entity -&gt; Declaration_entity , Identifier_array · = Assignment_expression 
+Declaration_entity -&gt; Declaration_entity , Identifier_array · 
+Identifier_array -&gt; Identifier_array · [ int_value ]</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3711,8 +3711,8 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Arithmetic_expression -&gt; Arithmetic_expression · - Term_expression 
-Relation_expression -&gt; Arithmetic_expression · 
+          <t>Relation_expression -&gt; Arithmetic_expression · 
+Arithmetic_expression -&gt; Arithmetic_expression · - Term_expression 
 Arithmetic_expression -&gt; Arithmetic_expression · + Term_expression</t>
         </is>
       </c>
@@ -3985,8 +3985,8 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Bool_expression -&gt; Bool_expression · || Join_expression 
-Evaluation_expression -&gt; Bool_expression ·</t>
+          <t>Evaluation_expression -&gt; Bool_expression · 
+Bool_expression -&gt; Bool_expression · || Join_expression</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4272,12 +4272,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Assignment_expression -&gt; Evaluation_expression · %= Assignment_expression 
+          <t>Assignment_expression -&gt; Evaluation_expression · = Assignment_expression 
+Assignment_expression -&gt; Evaluation_expression · *= Assignment_expression 
+Assignment_expression -&gt; Evaluation_expression · %= Assignment_expression 
+Assignment_expression -&gt; Evaluation_expression · 
 Assignment_expression -&gt; Evaluation_expression · -= Assignment_expression 
-Assignment_expression -&gt; Evaluation_expression · *= Assignment_expression 
 Assignment_expression -&gt; Evaluation_expression · += Assignment_expression 
-Assignment_expression -&gt; Evaluation_expression · = Assignment_expression 
-Assignment_expression -&gt; Evaluation_expression · 
 Assignment_expression -&gt; Evaluation_expression · /= Assignment_expression</t>
         </is>
       </c>
@@ -4778,8 +4778,8 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Join_expression -&gt; Join_expression · &amp;&amp; Equality_expression 
-Bool_expression -&gt; Join_expression ·</t>
+          <t>Bool_expression -&gt; Join_expression · 
+Join_expression -&gt; Join_expression · &amp;&amp; Equality_expression</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4919,8 +4919,8 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Location_expression -&gt; Location_expression · [ Expression ] 
-Factor_expression -&gt; Location_expression ·</t>
+          <t>Factor_expression -&gt; Location_expression · 
+Location_expression -&gt; Location_expression · [ Expression ]</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -5108,11 +5108,11 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Relation_expression -&gt; Relation_expression · &gt; Arithmetic_expression 
-Relation_expression -&gt; Relation_expression · &gt;= Arithmetic_expression 
+          <t>Relation_expression -&gt; Relation_expression · &gt;= Arithmetic_expression 
+Relation_expression -&gt; Relation_expression · &gt; Arithmetic_expression 
+Relation_expression -&gt; Relation_expression · &lt; Arithmetic_expression 
 Equality_expression -&gt; Relation_expression · 
-Relation_expression -&gt; Relation_expression · &lt;= Arithmetic_expression 
-Relation_expression -&gt; Relation_expression · &lt; Arithmetic_expression</t>
+Relation_expression -&gt; Relation_expression · &lt;= Arithmetic_expression</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5277,9 +5277,9 @@
       <c r="A36" t="inlineStr">
         <is>
           <t>Arithmetic_expression -&gt; Term_expression · 
+Term_expression -&gt; Term_expression · * Unary_expression 
 Term_expression -&gt; Term_expression · % Unary_expression 
-Term_expression -&gt; Term_expression · / Unary_expression 
-Term_expression -&gt; Term_expression · * Unary_expression</t>
+Term_expression -&gt; Term_expression · / Unary_expression</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -7344,8 +7344,8 @@
       <c r="A47" t="inlineStr">
         <is>
           <t>Function_expression -&gt; identifier · ( ) 
-Location_expression -&gt; identifier · 
-Function_expression -&gt; identifier · ( Separation_expression )</t>
+Function_expression -&gt; identifier · ( Separation_expression ) 
+Location_expression -&gt; identifier ·</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -8285,8 +8285,8 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Function -&gt; Type identifier ( Arguments · ) Block 
-Arguments -&gt; Arguments · , Argument</t>
+          <t>Arguments -&gt; Arguments · , Argument 
+Function -&gt; Type identifier ( Arguments · ) Block</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -14251,8 +14251,8 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Function_expression -&gt; identifier ( · ) 
-Function_expression -&gt; identifier ( · Separation_expression ) 
+          <t>Function_expression -&gt; identifier ( · Separation_expression ) 
+Function_expression -&gt; identifier ( · ) 
 Separation_expression -&gt; · Assignment_expression , Separation_expression 
 Separation_expression -&gt; · Assignment_expression 
 Assignment_expression -&gt; · Evaluation_expression = Assignment_expression 
@@ -15387,8 +15387,8 @@
         <is>
           <t>Term_expression -&gt; Term_expression · % Unary_expression 
 Arithmetic_expression -&gt; Arithmetic_expression + Term_expression · 
-Term_expression -&gt; Term_expression · / Unary_expression 
-Term_expression -&gt; Term_expression · * Unary_expression</t>
+Term_expression -&gt; Term_expression · * Unary_expression 
+Term_expression -&gt; Term_expression · / Unary_expression</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -15572,10 +15572,10 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Term_expression -&gt; Term_expression · / Unary_expression 
-Term_expression -&gt; Term_expression · % Unary_expression 
+          <t>Term_expression -&gt; Term_expression · % Unary_expression 
+Term_expression -&gt; Term_expression · * Unary_expression 
 Arithmetic_expression -&gt; Arithmetic_expression - Term_expression · 
-Term_expression -&gt; Term_expression · * Unary_expression</t>
+Term_expression -&gt; Term_expression · / Unary_expression</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -15759,8 +15759,8 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Join_expression -&gt; Join_expression · &amp;&amp; Equality_expression 
-Bool_expression -&gt; Bool_expression || Join_expression ·</t>
+          <t>Bool_expression -&gt; Bool_expression || Join_expression · 
+Join_expression -&gt; Join_expression · &amp;&amp; Equality_expression</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -15900,11 +15900,11 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Equality_expression -&gt; Equality_expression != Relation_expression · 
-Relation_expression -&gt; Relation_expression · &gt;= Arithmetic_expression 
+          <t>Relation_expression -&gt; Relation_expression · &gt;= Arithmetic_expression 
 Relation_expression -&gt; Relation_expression · &gt; Arithmetic_expression 
+Relation_expression -&gt; Relation_expression · &lt; Arithmetic_expression 
 Relation_expression -&gt; Relation_expression · &lt;= Arithmetic_expression 
-Relation_expression -&gt; Relation_expression · &lt; Arithmetic_expression</t>
+Equality_expression -&gt; Equality_expression != Relation_expression ·</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -16068,11 +16068,11 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Relation_expression -&gt; Relation_expression · &gt; Arithmetic_expression 
-Relation_expression -&gt; Relation_expression · &gt;= Arithmetic_expression 
-Equality_expression -&gt; Equality_expression == Relation_expression · 
+          <t>Relation_expression -&gt; Relation_expression · &gt;= Arithmetic_expression 
+Relation_expression -&gt; Relation_expression · &gt; Arithmetic_expression 
+Relation_expression -&gt; Relation_expression · &lt; Arithmetic_expression 
 Relation_expression -&gt; Relation_expression · &lt;= Arithmetic_expression 
-Relation_expression -&gt; Relation_expression · &lt; Arithmetic_expression</t>
+Equality_expression -&gt; Equality_expression == Relation_expression ·</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -16884,8 +16884,8 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Join_expression -&gt; Join_expression &amp;&amp; Equality_expression · 
-Equality_expression -&gt; Equality_expression · == Relation_expression 
+          <t>Equality_expression -&gt; Equality_expression · == Relation_expression 
+Join_expression -&gt; Join_expression &amp;&amp; Equality_expression · 
 Equality_expression -&gt; Equality_expression · != Relation_expression</t>
         </is>
       </c>
@@ -17130,8 +17130,8 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Arithmetic_expression -&gt; Arithmetic_expression · - Term_expression 
-Relation_expression -&gt; Relation_expression &lt; Arithmetic_expression · 
+          <t>Relation_expression -&gt; Relation_expression &lt; Arithmetic_expression · 
+Arithmetic_expression -&gt; Arithmetic_expression · - Term_expression 
 Arithmetic_expression -&gt; Arithmetic_expression · + Term_expression</t>
         </is>
       </c>
@@ -17478,9 +17478,9 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Arithmetic_expression -&gt; Arithmetic_expression · - Term_expression 
-Arithmetic_expression -&gt; Arithmetic_expression · + Term_expression 
-Relation_expression -&gt; Relation_expression &gt; Arithmetic_expression ·</t>
+          <t>Relation_expression -&gt; Relation_expression &gt; Arithmetic_expression · 
+Arithmetic_expression -&gt; Arithmetic_expression · - Term_expression 
+Arithmetic_expression -&gt; Arithmetic_expression · + Term_expression</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -17652,9 +17652,9 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Arithmetic_expression -&gt; Arithmetic_expression · - Term_expression 
-Relation_expression -&gt; Relation_expression &gt;= Arithmetic_expression · 
-Arithmetic_expression -&gt; Arithmetic_expression · + Term_expression</t>
+          <t>Arithmetic_expression -&gt; Arithmetic_expression · + Term_expression 
+Arithmetic_expression -&gt; Arithmetic_expression · - Term_expression 
+Relation_expression -&gt; Relation_expression &gt;= Arithmetic_expression ·</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -19306,8 +19306,8 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Declarations_or_statements -&gt; Declarations_or_statements · Declaration 
-Declarations_or_statements -&gt; Declarations_or_statements · Statement 
+          <t>Declarations_or_statements -&gt; Declarations_or_statements · Statement 
+Declarations_or_statements -&gt; Declarations_or_statements · Declaration 
 Block -&gt; { Declarations_or_statements · } 
 Declaration -&gt; · Type Declaration_entity ; 
 Statement -&gt; · Open_statement 
@@ -21319,8 +21319,8 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Type -&gt; Type · * 
-Declaration -&gt; Type · Declaration_entity ; 
+          <t>Declaration -&gt; Type · Declaration_entity ; 
+Type -&gt; Type · * 
 Declaration_entity -&gt; · Declaration_entity , Identifier_array 
 Declaration_entity -&gt; · Declaration_entity , Identifier_array = Assignment_expression 
 Declaration_entity -&gt; · Identifier_array 
@@ -22168,10 +22168,10 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Open_statement -&gt; for · ( Declaration Expression ; Expression ) Open_statement 
-Open_statement -&gt; for · ( Expression ; Expression ; Expression ) Open_statement 
+          <t>Closed_statement -&gt; for · ( Expression ; Expression ; Expression ) Closed_statement 
 Closed_statement -&gt; for · ( Declaration Expression ; Expression ) Closed_statement 
-Closed_statement -&gt; for · ( Expression ; Expression ; Expression ) Closed_statement</t>
+Open_statement -&gt; for · ( Declaration Expression ; Expression ) Open_statement 
+Open_statement -&gt; for · ( Expression ; Expression ; Expression ) Open_statement</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -22363,9 +22363,9 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Open_statement -&gt; if · ( Bool_expression ) Closed_statement else Open_statement 
+          <t>Open_statement -&gt; if · ( Bool_expression ) Statement 
 Closed_statement -&gt; if · ( Bool_expression ) Closed_statement else Closed_statement 
-Open_statement -&gt; if · ( Bool_expression ) Statement</t>
+Open_statement -&gt; if · ( Bool_expression ) Closed_statement else Open_statement</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -22461,8 +22461,8 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Closed_statement -&gt; return · ; 
-Closed_statement -&gt; return · Expression ; 
+          <t>Closed_statement -&gt; return · Expression ; 
+Closed_statement -&gt; return · ; 
 Expression -&gt; · Separation_expression 
 Separation_expression -&gt; · Assignment_expression , Separation_expression 
 Separation_expression -&gt; · Assignment_expression 
@@ -22715,8 +22715,8 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Closed_statement -&gt; while · ( Bool_expression ) Closed_statement 
-Open_statement -&gt; while · ( Bool_expression ) Open_statement</t>
+          <t>Open_statement -&gt; while · ( Bool_expression ) Open_statement 
+Closed_statement -&gt; while · ( Bool_expression ) Closed_statement</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -23776,22 +23776,16 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Closed_statement -&gt; for ( · Declaration Expression ; Expression ) Closed_statement 
-Open_statement -&gt; for ( · Declaration Expression ; Expression ) Open_statement 
+          <t>Open_statement -&gt; for ( · Declaration Expression ; Expression ) Open_statement 
+Open_statement -&gt; for ( · Expression ; Expression ; Expression ) Open_statement 
+Closed_statement -&gt; for ( · Declaration Expression ; Expression ) Closed_statement 
 Closed_statement -&gt; for ( · Expression ; Expression ; Expression ) Closed_statement 
-Open_statement -&gt; for ( · Expression ; Expression ; Expression ) Open_statement 
+Expression -&gt; · Separation_expression 
 Declaration -&gt; · Type Declaration_entity ; 
-Expression -&gt; · Separation_expression 
+Separation_expression -&gt; · Assignment_expression , Separation_expression 
+Separation_expression -&gt; · Assignment_expression 
 Type -&gt; · Type * 
 Type -&gt; · Basic_type 
-Separation_expression -&gt; · Assignment_expression , Separation_expression 
-Separation_expression -&gt; · Assignment_expression 
-Basic_type -&gt; · float 
-Basic_type -&gt; · int 
-Basic_type -&gt; · bool 
-Basic_type -&gt; · void 
-Basic_type -&gt; · string 
-Basic_type -&gt; · char 
 Assignment_expression -&gt; · Evaluation_expression = Assignment_expression 
 Assignment_expression -&gt; · Evaluation_expression += Assignment_expression 
 Assignment_expression -&gt; · Evaluation_expression -= Assignment_expression 
@@ -23799,6 +23793,12 @@
 Assignment_expression -&gt; · Evaluation_expression /= Assignment_expression 
 Assignment_expression -&gt; · Evaluation_expression %= Assignment_expression 
 Assignment_expression -&gt; · Evaluation_expression 
+Basic_type -&gt; · float 
+Basic_type -&gt; · int 
+Basic_type -&gt; · bool 
+Basic_type -&gt; · void 
+Basic_type -&gt; · string 
+Basic_type -&gt; · char 
 Evaluation_expression -&gt; · Bool_expression 
 Bool_expression -&gt; · Bool_expression || Join_expression 
 Bool_expression -&gt; · Join_expression 
@@ -24169,8 +24169,8 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Closed_statement -&gt; if ( · Bool_expression ) Closed_statement else Closed_statement 
-Open_statement -&gt; if ( · Bool_expression ) Closed_statement else Open_statement 
+          <t>Open_statement -&gt; if ( · Bool_expression ) Closed_statement else Open_statement 
+Closed_statement -&gt; if ( · Bool_expression ) Closed_statement else Closed_statement 
 Open_statement -&gt; if ( · Bool_expression ) Statement 
 Bool_expression -&gt; · Bool_expression || Join_expression 
 Bool_expression -&gt; · Join_expression 
@@ -24705,8 +24705,8 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Closed_statement -&gt; while ( · Bool_expression ) Closed_statement 
-Open_statement -&gt; while ( · Bool_expression ) Open_statement 
+          <t>Open_statement -&gt; while ( · Bool_expression ) Open_statement 
+Closed_statement -&gt; while ( · Bool_expression ) Closed_statement 
 Bool_expression -&gt; · Bool_expression || Join_expression 
 Bool_expression -&gt; · Join_expression 
 Join_expression -&gt; · Join_expression &amp;&amp; Equality_expression 
@@ -25274,8 +25274,8 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Closed_statement -&gt; for ( Expression · ; Expression ; Expression ) Closed_statement 
-Open_statement -&gt; for ( Expression · ; Expression ; Expression ) Open_statement</t>
+          <t>Open_statement -&gt; for ( Expression · ; Expression ; Expression ) Open_statement 
+Closed_statement -&gt; for ( Expression · ; Expression ; Expression ) Closed_statement</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -25587,10 +25587,10 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Open_statement -&gt; if ( Bool_expression · ) Statement 
-Open_statement -&gt; if ( Bool_expression · ) Closed_statement else Open_statement 
-Closed_statement -&gt; if ( Bool_expression · ) Closed_statement else Closed_statement 
-Bool_expression -&gt; Bool_expression · || Join_expression</t>
+          <t>Closed_statement -&gt; if ( Bool_expression · ) Closed_statement else Closed_statement 
+Open_statement -&gt; if ( Bool_expression · ) Statement 
+Bool_expression -&gt; Bool_expression · || Join_expression 
+Open_statement -&gt; if ( Bool_expression · ) Closed_statement else Open_statement</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -26230,8 +26230,8 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Closed_statement -&gt; for ( Declaration Expression · ; Expression ) Closed_statement 
-Open_statement -&gt; for ( Declaration Expression · ; Expression ) Open_statement</t>
+          <t>Open_statement -&gt; for ( Declaration Expression · ; Expression ) Open_statement 
+Closed_statement -&gt; for ( Declaration Expression · ; Expression ) Closed_statement</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -26577,11 +26577,336 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Open_statement -&gt; if ( Bool_expression ) · Closed_statement else Open_statement 
-Open_statement -&gt; if ( Bool_expression ) · Statement 
+          <t>Open_statement -&gt; if ( Bool_expression ) · Statement 
+Open_statement -&gt; if ( Bool_expression ) · Closed_statement else Open_statement 
 Closed_statement -&gt; if ( Bool_expression ) · Closed_statement else Closed_statement 
+Closed_statement -&gt; · if ( Bool_expression ) Closed_statement else Closed_statement 
+Closed_statement -&gt; · while ( Bool_expression ) Closed_statement 
+Closed_statement -&gt; · for ( Expression ; Expression ; Expression ) Closed_statement 
+Closed_statement -&gt; · for ( Declaration Expression ; Expression ) Closed_statement 
+Closed_statement -&gt; · Block 
+Closed_statement -&gt; · Expression ; 
+Closed_statement -&gt; · ; 
+Closed_statement -&gt; · do Statement while ( Bool_expression ) ; 
+Closed_statement -&gt; · break ; 
+Closed_statement -&gt; · continue ; 
+Closed_statement -&gt; · goto identifier ; 
+Closed_statement -&gt; · return Expression ; 
+Closed_statement -&gt; · return ; 
 Statement -&gt; · Open_statement 
 Statement -&gt; · Closed_statement 
+Block -&gt; · { Declarations_or_statements } 
+Expression -&gt; · Separation_expression 
+Open_statement -&gt; · if ( Bool_expression ) Statement 
+Open_statement -&gt; · if ( Bool_expression ) Closed_statement else Open_statement 
+Open_statement -&gt; · while ( Bool_expression ) Open_statement 
+Open_statement -&gt; · for ( Expression ; Expression ; Expression ) Open_statement 
+Open_statement -&gt; · for ( Declaration Expression ; Expression ) Open_statement 
+Separation_expression -&gt; · Assignment_expression , Separation_expression 
+Separation_expression -&gt; · Assignment_expression 
+Assignment_expression -&gt; · Evaluation_expression = Assignment_expression 
+Assignment_expression -&gt; · Evaluation_expression += Assignment_expression 
+Assignment_expression -&gt; · Evaluation_expression -= Assignment_expression 
+Assignment_expression -&gt; · Evaluation_expression *= Assignment_expression 
+Assignment_expression -&gt; · Evaluation_expression /= Assignment_expression 
+Assignment_expression -&gt; · Evaluation_expression %= Assignment_expression 
+Assignment_expression -&gt; · Evaluation_expression 
+Evaluation_expression -&gt; · Bool_expression 
+Bool_expression -&gt; · Bool_expression || Join_expression 
+Bool_expression -&gt; · Join_expression 
+Join_expression -&gt; · Join_expression &amp;&amp; Equality_expression 
+Join_expression -&gt; · Equality_expression 
+Equality_expression -&gt; · Equality_expression == Relation_expression 
+Equality_expression -&gt; · Equality_expression != Relation_expression 
+Equality_expression -&gt; · Relation_expression 
+Relation_expression -&gt; · Relation_expression &lt; Arithmetic_expression 
+Relation_expression -&gt; · Relation_expression &lt;= Arithmetic_expression 
+Relation_expression -&gt; · Relation_expression &gt;= Arithmetic_expression 
+Relation_expression -&gt; · Relation_expression &gt; Arithmetic_expression 
+Relation_expression -&gt; · Arithmetic_expression 
+Arithmetic_expression -&gt; · Arithmetic_expression + Term_expression 
+Arithmetic_expression -&gt; · Arithmetic_expression - Term_expression 
+Arithmetic_expression -&gt; · Term_expression 
+Term_expression -&gt; · Term_expression * Unary_expression 
+Term_expression -&gt; · Term_expression / Unary_expression 
+Term_expression -&gt; · Term_expression % Unary_expression 
+Term_expression -&gt; · Unary_expression 
+Unary_expression -&gt; · ! Unary_expression 
+Unary_expression -&gt; · - Unary_expression 
+Unary_expression -&gt; · + Unary_expression 
+Unary_expression -&gt; · * Unary_expression 
+Unary_expression -&gt; · &amp; Unary_expression 
+Unary_expression -&gt; · Factor_expression 
+Factor_expression -&gt; · ( Expression ) 
+Factor_expression -&gt; · Location_expression 
+Factor_expression -&gt; · Function_expression 
+Factor_expression -&gt; · int_value 
+Factor_expression -&gt; · float_value 
+Factor_expression -&gt; · string_value 
+Factor_expression -&gt; · char_value 
+Factor_expression -&gt; · true 
+Factor_expression -&gt; · false 
+Location_expression -&gt; · Location_expression [ Expression ] 
+Location_expression -&gt; · identifier 
+Function_expression -&gt; · identifier ( Separation_expression ) 
+Function_expression -&gt; · identifier ( )</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>I157</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>s35</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>s36</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>s37</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>s38</t>
+        </is>
+      </c>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>s39</t>
+        </is>
+      </c>
+      <c r="N160" t="inlineStr"/>
+      <c r="O160" t="inlineStr"/>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>s40</t>
+        </is>
+      </c>
+      <c r="Q160" t="inlineStr"/>
+      <c r="R160" t="inlineStr"/>
+      <c r="S160" t="inlineStr"/>
+      <c r="T160" t="inlineStr">
+        <is>
+          <t>s127</t>
+        </is>
+      </c>
+      <c r="U160" t="inlineStr"/>
+      <c r="V160" t="inlineStr"/>
+      <c r="W160" t="inlineStr"/>
+      <c r="X160" t="inlineStr"/>
+      <c r="Y160" t="inlineStr"/>
+      <c r="Z160" t="inlineStr"/>
+      <c r="AA160" t="inlineStr"/>
+      <c r="AB160" t="inlineStr"/>
+      <c r="AC160" t="inlineStr"/>
+      <c r="AD160" t="inlineStr">
+        <is>
+          <t>s128</t>
+        </is>
+      </c>
+      <c r="AE160" t="inlineStr"/>
+      <c r="AF160" t="inlineStr">
+        <is>
+          <t>s41</t>
+        </is>
+      </c>
+      <c r="AG160" t="inlineStr">
+        <is>
+          <t>s129</t>
+        </is>
+      </c>
+      <c r="AH160" t="inlineStr">
+        <is>
+          <t>s130</t>
+        </is>
+      </c>
+      <c r="AI160" t="inlineStr"/>
+      <c r="AJ160" t="inlineStr">
+        <is>
+          <t>s42</t>
+        </is>
+      </c>
+      <c r="AK160" t="inlineStr"/>
+      <c r="AL160" t="inlineStr">
+        <is>
+          <t>s43</t>
+        </is>
+      </c>
+      <c r="AM160" t="inlineStr">
+        <is>
+          <t>s131</t>
+        </is>
+      </c>
+      <c r="AN160" t="inlineStr">
+        <is>
+          <t>s132</t>
+        </is>
+      </c>
+      <c r="AO160" t="inlineStr">
+        <is>
+          <t>s44</t>
+        </is>
+      </c>
+      <c r="AP160" t="inlineStr">
+        <is>
+          <t>s133</t>
+        </is>
+      </c>
+      <c r="AQ160" t="inlineStr"/>
+      <c r="AR160" t="inlineStr">
+        <is>
+          <t>s45</t>
+        </is>
+      </c>
+      <c r="AS160" t="inlineStr">
+        <is>
+          <t>s134</t>
+        </is>
+      </c>
+      <c r="AT160" t="inlineStr"/>
+      <c r="AU160" t="inlineStr">
+        <is>
+          <t>s46</t>
+        </is>
+      </c>
+      <c r="AV160" t="inlineStr">
+        <is>
+          <t>s47</t>
+        </is>
+      </c>
+      <c r="AW160" t="inlineStr"/>
+      <c r="AX160" t="inlineStr">
+        <is>
+          <t>s135</t>
+        </is>
+      </c>
+      <c r="AY160" t="inlineStr">
+        <is>
+          <t>s88</t>
+        </is>
+      </c>
+      <c r="AZ160" t="inlineStr"/>
+      <c r="BA160" t="inlineStr"/>
+      <c r="BB160" t="inlineStr"/>
+      <c r="BC160" t="inlineStr"/>
+      <c r="BD160" t="inlineStr"/>
+      <c r="BE160" t="inlineStr"/>
+      <c r="BF160" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="BG160" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="BH160" t="inlineStr"/>
+      <c r="BI160" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="BJ160" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="BK160" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="BL160" t="inlineStr"/>
+      <c r="BM160" t="inlineStr"/>
+      <c r="BN160" t="inlineStr"/>
+      <c r="BO160" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="BP160" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="BQ160" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="BR160" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="BS160" t="inlineStr"/>
+      <c r="BT160" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="BU160" t="inlineStr"/>
+      <c r="BV160" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="BW160" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="BX160" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="BY160" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="BZ160" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="CA160" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="CB160" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="CC160" t="inlineStr"/>
+      <c r="CD160" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Open_statement -&gt; while ( Bool_expression ) · Open_statement 
+Closed_statement -&gt; while ( Bool_expression ) · Closed_statement 
 Closed_statement -&gt; · if ( Bool_expression ) Closed_statement else Closed_statement 
 Closed_statement -&gt; · while ( Bool_expression ) Closed_statement 
 Closed_statement -&gt; · for ( Expression ; Expression ; Expression ) Closed_statement 
@@ -26652,331 +26977,6 @@
 Function_expression -&gt; · identifier ( )</t>
         </is>
       </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>I157</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>s35</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr"/>
-      <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>s36</t>
-        </is>
-      </c>
-      <c r="H160" t="inlineStr"/>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>s37</t>
-        </is>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>s38</t>
-        </is>
-      </c>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="inlineStr">
-        <is>
-          <t>s39</t>
-        </is>
-      </c>
-      <c r="N160" t="inlineStr"/>
-      <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr">
-        <is>
-          <t>s40</t>
-        </is>
-      </c>
-      <c r="Q160" t="inlineStr"/>
-      <c r="R160" t="inlineStr"/>
-      <c r="S160" t="inlineStr"/>
-      <c r="T160" t="inlineStr">
-        <is>
-          <t>s127</t>
-        </is>
-      </c>
-      <c r="U160" t="inlineStr"/>
-      <c r="V160" t="inlineStr"/>
-      <c r="W160" t="inlineStr"/>
-      <c r="X160" t="inlineStr"/>
-      <c r="Y160" t="inlineStr"/>
-      <c r="Z160" t="inlineStr"/>
-      <c r="AA160" t="inlineStr"/>
-      <c r="AB160" t="inlineStr"/>
-      <c r="AC160" t="inlineStr"/>
-      <c r="AD160" t="inlineStr">
-        <is>
-          <t>s128</t>
-        </is>
-      </c>
-      <c r="AE160" t="inlineStr"/>
-      <c r="AF160" t="inlineStr">
-        <is>
-          <t>s41</t>
-        </is>
-      </c>
-      <c r="AG160" t="inlineStr">
-        <is>
-          <t>s129</t>
-        </is>
-      </c>
-      <c r="AH160" t="inlineStr">
-        <is>
-          <t>s130</t>
-        </is>
-      </c>
-      <c r="AI160" t="inlineStr"/>
-      <c r="AJ160" t="inlineStr">
-        <is>
-          <t>s42</t>
-        </is>
-      </c>
-      <c r="AK160" t="inlineStr"/>
-      <c r="AL160" t="inlineStr">
-        <is>
-          <t>s43</t>
-        </is>
-      </c>
-      <c r="AM160" t="inlineStr">
-        <is>
-          <t>s131</t>
-        </is>
-      </c>
-      <c r="AN160" t="inlineStr">
-        <is>
-          <t>s132</t>
-        </is>
-      </c>
-      <c r="AO160" t="inlineStr">
-        <is>
-          <t>s44</t>
-        </is>
-      </c>
-      <c r="AP160" t="inlineStr">
-        <is>
-          <t>s133</t>
-        </is>
-      </c>
-      <c r="AQ160" t="inlineStr"/>
-      <c r="AR160" t="inlineStr">
-        <is>
-          <t>s45</t>
-        </is>
-      </c>
-      <c r="AS160" t="inlineStr">
-        <is>
-          <t>s134</t>
-        </is>
-      </c>
-      <c r="AT160" t="inlineStr"/>
-      <c r="AU160" t="inlineStr">
-        <is>
-          <t>s46</t>
-        </is>
-      </c>
-      <c r="AV160" t="inlineStr">
-        <is>
-          <t>s47</t>
-        </is>
-      </c>
-      <c r="AW160" t="inlineStr"/>
-      <c r="AX160" t="inlineStr">
-        <is>
-          <t>s135</t>
-        </is>
-      </c>
-      <c r="AY160" t="inlineStr">
-        <is>
-          <t>s88</t>
-        </is>
-      </c>
-      <c r="AZ160" t="inlineStr"/>
-      <c r="BA160" t="inlineStr"/>
-      <c r="BB160" t="inlineStr"/>
-      <c r="BC160" t="inlineStr"/>
-      <c r="BD160" t="inlineStr"/>
-      <c r="BE160" t="inlineStr"/>
-      <c r="BF160" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="BG160" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="BH160" t="inlineStr"/>
-      <c r="BI160" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="BJ160" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="BK160" t="inlineStr">
-        <is>
-          <t>162</t>
-        </is>
-      </c>
-      <c r="BL160" t="inlineStr"/>
-      <c r="BM160" t="inlineStr"/>
-      <c r="BN160" t="inlineStr"/>
-      <c r="BO160" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="BP160" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="BQ160" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="BR160" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="BS160" t="inlineStr"/>
-      <c r="BT160" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="BU160" t="inlineStr"/>
-      <c r="BV160" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="BW160" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="BX160" t="inlineStr">
-        <is>
-          <t>124</t>
-        </is>
-      </c>
-      <c r="BY160" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="BZ160" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="CA160" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="CB160" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="CC160" t="inlineStr"/>
-      <c r="CD160" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>Closed_statement -&gt; while ( Bool_expression ) · Closed_statement 
-Open_statement -&gt; while ( Bool_expression ) · Open_statement 
-Closed_statement -&gt; · if ( Bool_expression ) Closed_statement else Closed_statement 
-Closed_statement -&gt; · while ( Bool_expression ) Closed_statement 
-Closed_statement -&gt; · for ( Expression ; Expression ; Expression ) Closed_statement 
-Closed_statement -&gt; · for ( Declaration Expression ; Expression ) Closed_statement 
-Closed_statement -&gt; · Block 
-Closed_statement -&gt; · Expression ; 
-Closed_statement -&gt; · ; 
-Closed_statement -&gt; · do Statement while ( Bool_expression ) ; 
-Closed_statement -&gt; · break ; 
-Closed_statement -&gt; · continue ; 
-Closed_statement -&gt; · goto identifier ; 
-Closed_statement -&gt; · return Expression ; 
-Closed_statement -&gt; · return ; 
-Open_statement -&gt; · if ( Bool_expression ) Statement 
-Open_statement -&gt; · if ( Bool_expression ) Closed_statement else Open_statement 
-Open_statement -&gt; · while ( Bool_expression ) Open_statement 
-Open_statement -&gt; · for ( Expression ; Expression ; Expression ) Open_statement 
-Open_statement -&gt; · for ( Declaration Expression ; Expression ) Open_statement 
-Block -&gt; · { Declarations_or_statements } 
-Expression -&gt; · Separation_expression 
-Separation_expression -&gt; · Assignment_expression , Separation_expression 
-Separation_expression -&gt; · Assignment_expression 
-Assignment_expression -&gt; · Evaluation_expression = Assignment_expression 
-Assignment_expression -&gt; · Evaluation_expression += Assignment_expression 
-Assignment_expression -&gt; · Evaluation_expression -= Assignment_expression 
-Assignment_expression -&gt; · Evaluation_expression *= Assignment_expression 
-Assignment_expression -&gt; · Evaluation_expression /= Assignment_expression 
-Assignment_expression -&gt; · Evaluation_expression %= Assignment_expression 
-Assignment_expression -&gt; · Evaluation_expression 
-Evaluation_expression -&gt; · Bool_expression 
-Bool_expression -&gt; · Bool_expression || Join_expression 
-Bool_expression -&gt; · Join_expression 
-Join_expression -&gt; · Join_expression &amp;&amp; Equality_expression 
-Join_expression -&gt; · Equality_expression 
-Equality_expression -&gt; · Equality_expression == Relation_expression 
-Equality_expression -&gt; · Equality_expression != Relation_expression 
-Equality_expression -&gt; · Relation_expression 
-Relation_expression -&gt; · Relation_expression &lt; Arithmetic_expression 
-Relation_expression -&gt; · Relation_expression &lt;= Arithmetic_expression 
-Relation_expression -&gt; · Relation_expression &gt;= Arithmetic_expression 
-Relation_expression -&gt; · Relation_expression &gt; Arithmetic_expression 
-Relation_expression -&gt; · Arithmetic_expression 
-Arithmetic_expression -&gt; · Arithmetic_expression + Term_expression 
-Arithmetic_expression -&gt; · Arithmetic_expression - Term_expression 
-Arithmetic_expression -&gt; · Term_expression 
-Term_expression -&gt; · Term_expression * Unary_expression 
-Term_expression -&gt; · Term_expression / Unary_expression 
-Term_expression -&gt; · Term_expression % Unary_expression 
-Term_expression -&gt; · Unary_expression 
-Unary_expression -&gt; · ! Unary_expression 
-Unary_expression -&gt; · - Unary_expression 
-Unary_expression -&gt; · + Unary_expression 
-Unary_expression -&gt; · * Unary_expression 
-Unary_expression -&gt; · &amp; Unary_expression 
-Unary_expression -&gt; · Factor_expression 
-Factor_expression -&gt; · ( Expression ) 
-Factor_expression -&gt; · Location_expression 
-Factor_expression -&gt; · Function_expression 
-Factor_expression -&gt; · int_value 
-Factor_expression -&gt; · float_value 
-Factor_expression -&gt; · string_value 
-Factor_expression -&gt; · char_value 
-Factor_expression -&gt; · true 
-Factor_expression -&gt; · false 
-Location_expression -&gt; · Location_expression [ Expression ] 
-Location_expression -&gt; · identifier 
-Function_expression -&gt; · identifier ( Separation_expression ) 
-Function_expression -&gt; · identifier ( )</t>
-        </is>
-      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>I158</t>
@@ -27327,8 +27327,8 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Closed_statement -&gt; for ( Declaration Expression ; · Expression ) Closed_statement 
-Open_statement -&gt; for ( Declaration Expression ; · Expression ) Open_statement 
+          <t>Open_statement -&gt; for ( Declaration Expression ; · Expression ) Open_statement 
+Closed_statement -&gt; for ( Declaration Expression ; · Expression ) Closed_statement 
 Expression -&gt; · Separation_expression 
 Separation_expression -&gt; · Assignment_expression , Separation_expression 
 Separation_expression -&gt; · Assignment_expression 
@@ -30786,8 +30786,8 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Open_statement -&gt; for ( Expression ; Expression ; Expression ) · Open_statement 
-Closed_statement -&gt; for ( Expression ; Expression ; Expression ) · Closed_statement 
+          <t>Closed_statement -&gt; for ( Expression ; Expression ; Expression ) · Closed_statement 
+Open_statement -&gt; for ( Expression ; Expression ; Expression ) · Open_statement 
 Open_statement -&gt; · if ( Bool_expression ) Statement 
 Open_statement -&gt; · if ( Bool_expression ) Closed_statement else Open_statement 
 Open_statement -&gt; · while ( Bool_expression ) Open_statement 
